--- a/hardware/adapter_target_v1.3_debug/Bill of Materials-target_adapt_header.xlsx
+++ b/hardware/adapter_target_v1.3_debug/Bill of Materials-target_adapt_header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Documents\Altium\shepherd_v24_target_adapter_hdr\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC82581-08D1-4F29-AFE3-F5812837BCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAAF1C03-780F-4040-833F-DDF43C78D578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="2352" windowWidth="23592" windowHeight="20784" xr2:uid="{EB4434A4-0A65-436A-BD63-04501809BAFD}"/>
+    <workbookView xWindow="6696" yWindow="420" windowWidth="21780" windowHeight="24780" xr2:uid="{B3C77F4E-DDC8-459B-B14C-7011FD2A9B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-target_adapt_" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7520F0-B65E-4B4E-8C1A-7B79BD52F1BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C9B247-A738-46DE-99E7-7A9505A0ECA7}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -619,6 +619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="171" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>